--- a/فاکتور.xlsx
+++ b/فاکتور.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="207">
   <si>
     <t>ردیف</t>
   </si>
@@ -642,6 +642,9 @@
   </si>
   <si>
     <t>تعمیر درب ورودی سالن ورق</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1165,7 @@
   <dimension ref="A1:H524"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A105" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3754,8 +3757,12 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="D118" s="1"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>

--- a/فاکتور.xlsx
+++ b/فاکتور.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="206">
   <si>
     <t>ردیف</t>
   </si>
@@ -642,9 +642,6 @@
   </si>
   <si>
     <t>تعمیر درب ورودی سالن ورق</t>
-  </si>
-  <si>
-    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -3757,12 +3754,8 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>

--- a/فاکتور.xlsx
+++ b/فاکتور.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="262">
   <si>
     <t>ردیف</t>
   </si>
@@ -642,6 +642,174 @@
   </si>
   <si>
     <t>تعمیر درب ورودی سالن ورق</t>
+  </si>
+  <si>
+    <t>1399/12/17</t>
+  </si>
+  <si>
+    <t>تعمیر فرز بوش H55</t>
+  </si>
+  <si>
+    <t>الکترومکانیکی امیر</t>
+  </si>
+  <si>
+    <t>مربوط به واحد قطعه سازی</t>
+  </si>
+  <si>
+    <t>مربوط به واحد LPG</t>
+  </si>
+  <si>
+    <t>تعمیر فرز بوش 1361</t>
+  </si>
+  <si>
+    <t>تعمیر فرز بوش 1331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شیر برقی </t>
+  </si>
+  <si>
+    <t>کوبلینگ 1/2آب</t>
+  </si>
+  <si>
+    <t>زانو90*20سفید روگا</t>
+  </si>
+  <si>
+    <t>زانو90*25سفید روگا</t>
+  </si>
+  <si>
+    <t>زانو مغزی بستدار 1/2*20سفید روگا</t>
+  </si>
+  <si>
+    <t>کالای ساختمانی دماوند</t>
+  </si>
+  <si>
+    <t>تعمیر دستگاه های CNC</t>
+  </si>
+  <si>
+    <t>سنسورسطح سنج PTFA3315سلدوک</t>
+  </si>
+  <si>
+    <t>تعمیر اینداکشن</t>
+  </si>
+  <si>
+    <t>کابل افشان 6*4</t>
+  </si>
+  <si>
+    <t>100متر</t>
+  </si>
+  <si>
+    <t>نصب فن پلاسمای سالن ورق</t>
+  </si>
+  <si>
+    <t>کنتاکت LEDرله کتابیFINDER</t>
+  </si>
+  <si>
+    <t>تابلوی 20*40*30 الکترواستاتیک طرح ریتال</t>
+  </si>
+  <si>
+    <t>تعمیر فرز 1361</t>
+  </si>
+  <si>
+    <t>تعمیر فرز بوش</t>
+  </si>
+  <si>
+    <t>1399/12/05</t>
+  </si>
+  <si>
+    <t>تعمیر فرز</t>
+  </si>
+  <si>
+    <t>تعمیرات ماشین افزار ابراهیمی</t>
+  </si>
+  <si>
+    <t>مربوط به واحد CNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعمیر فرز </t>
+  </si>
+  <si>
+    <t>تعمیر فرز افقی</t>
+  </si>
+  <si>
+    <t>فروشگاه تسمه روشن</t>
+  </si>
+  <si>
+    <t>مربوط به واحد ماشینکاری</t>
+  </si>
+  <si>
+    <t>لاستیک لیفتراک</t>
+  </si>
+  <si>
+    <t>2حلقه</t>
+  </si>
+  <si>
+    <t>بازرگانی لاستیک قنبری</t>
+  </si>
+  <si>
+    <t>مربوط به واحد مونتاژ</t>
+  </si>
+  <si>
+    <t>تسمه A33 هانکوک کره</t>
+  </si>
+  <si>
+    <t>تسمه B49 فوجی</t>
+  </si>
+  <si>
+    <t>تسمه B74 فوجی</t>
+  </si>
+  <si>
+    <t>تعمیر دسنگاه پرس</t>
+  </si>
+  <si>
+    <t>تعمیر شات پلاست</t>
+  </si>
+  <si>
+    <t>سوپاپ اطمینان 3/4 طرح ایتالیا</t>
+  </si>
+  <si>
+    <t>تعمیر کمپرسور سالن تولید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گردون اتوماتیک تورچ </t>
+  </si>
+  <si>
+    <t>فیش نری 75بوش</t>
+  </si>
+  <si>
+    <t>تعمیر دستگاه های CO2سالن تولید</t>
+  </si>
+  <si>
+    <t>شلنگ گازوئیل</t>
+  </si>
+  <si>
+    <t>بلبرینگ اصل ژاپن</t>
+  </si>
+  <si>
+    <t>تعمیر تراکتور</t>
+  </si>
+  <si>
+    <t>تعمیر سنگ فرزهای تولید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بلبرینگ زاویه ای </t>
+  </si>
+  <si>
+    <t>بلبرینگ حصیری</t>
+  </si>
+  <si>
+    <t>بلبرینگ ژاپنی C3</t>
+  </si>
+  <si>
+    <t>بلبرینگ ژاپنی</t>
+  </si>
+  <si>
+    <t>تعمیر دستگاه هیتاچی سالن تراشکاری</t>
+  </si>
+  <si>
+    <t>سیم بکسل گالوانیزه نمره 6</t>
+  </si>
+  <si>
+    <t>تعمیر جرثقیل سالن قطه سازی</t>
   </si>
 </sst>
 </file>
@@ -663,15 +831,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="B Nazanin"/>
-      <charset val="178"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
     </font>
   </fonts>
   <fills count="2">
@@ -693,30 +861,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -731,7 +899,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="B Nazanin"/>
         <scheme val="none"/>
@@ -745,7 +913,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="B Nazanin"/>
         <scheme val="none"/>
@@ -759,7 +927,35 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="B Nazanin"/>
         <scheme val="none"/>
@@ -774,7 +970,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="B Nazanin"/>
         <scheme val="none"/>
@@ -789,7 +985,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="B Nazanin"/>
         <scheme val="none"/>
@@ -803,7 +999,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="B Nazanin"/>
         <scheme val="none"/>
@@ -817,7 +1013,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="B Nazanin"/>
         <scheme val="none"/>
@@ -831,35 +1027,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="B Nazanin"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="B Nazanin"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="B Nazanin"/>
         <scheme val="none"/>
@@ -880,17 +1048,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H524" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H524" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:H524"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ردیف" dataDxfId="7"/>
-    <tableColumn id="2" name="تاریخ" dataDxfId="6"/>
-    <tableColumn id="3" name="شرح کالا" dataDxfId="5"/>
-    <tableColumn id="4" name="تعداد" dataDxfId="4"/>
-    <tableColumn id="5" name="قیمت واحد" dataDxfId="3"/>
-    <tableColumn id="6" name="قیمت کل" dataDxfId="2"/>
-    <tableColumn id="7" name="فروشگاه" dataDxfId="1"/>
-    <tableColumn id="8" name="دستگاه" dataDxfId="0"/>
+    <tableColumn id="1" name="ردیف" dataDxfId="9"/>
+    <tableColumn id="2" name="تاریخ" dataDxfId="8"/>
+    <tableColumn id="3" name="شرح کالا" dataDxfId="7"/>
+    <tableColumn id="4" name="تعداد" dataDxfId="6"/>
+    <tableColumn id="5" name="قیمت واحد" dataDxfId="5"/>
+    <tableColumn id="6" name="قیمت کل" dataDxfId="4"/>
+    <tableColumn id="7" name="فروشگاه" dataDxfId="3"/>
+    <tableColumn id="8" name="دستگاه" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1161,21 +1329,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H524"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A105" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A136" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="36.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="26.875" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="6"/>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="7" customWidth="1"/>
+    <col min="7" max="7" width="27.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1191,10 +1359,10 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1215,10 +1383,10 @@
       <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>120000</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>1800000</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1237,10 +1405,10 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>880000</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>880000</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1259,10 +1427,10 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>1850000</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>1850000</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1281,10 +1449,10 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>1650000</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>1650000</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1303,10 +1471,10 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>2850000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>5700000</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1325,10 +1493,10 @@
       <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>125000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>1250000</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1347,10 +1515,10 @@
       <c r="D8" s="1">
         <v>24</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>670000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>1608000</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1369,10 +1537,10 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>9850000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>9850000</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1391,10 +1559,10 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>950000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>950000</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1413,10 +1581,10 @@
       <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <v>9500000</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>9500000</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1435,10 +1603,10 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>2250000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>2250000</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1457,10 +1625,10 @@
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>1480000</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>2960000</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1479,10 +1647,10 @@
       <c r="D14" s="1">
         <v>14</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>560000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>7840000</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1501,10 +1669,10 @@
       <c r="D15" s="1">
         <v>20</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>38000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>760000</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1523,10 +1691,10 @@
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>160000</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>480000</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1545,10 +1713,10 @@
       <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>3850000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>7700000</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1567,10 +1735,10 @@
       <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>950000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>2850000</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1589,10 +1757,10 @@
       <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>1700000</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>3400000</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1611,10 +1779,10 @@
       <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>680000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>1360000</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1633,10 +1801,10 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>12180000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>12180000</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1655,10 +1823,10 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>650000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>650000</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -1677,10 +1845,10 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>600000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>600000</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -1701,10 +1869,10 @@
       <c r="D24" s="1">
         <v>10</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>280000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>2800000</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -1723,10 +1891,10 @@
       <c r="D25" s="1">
         <v>10</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>250000</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>2500000</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -1745,10 +1913,10 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="4">
         <v>4800000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <v>4800000</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -1767,10 +1935,10 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>100000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>1000000</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -1789,10 +1957,10 @@
       <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>100000</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <v>200000</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -1811,10 +1979,10 @@
       <c r="D29" s="1">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>11500000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>34500000</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -1833,10 +2001,10 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="4">
         <v>3500000</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>3500000</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -1855,10 +2023,10 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>300000</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>300000</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -1877,10 +2045,10 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <v>16700000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>16700000</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -1899,10 +2067,10 @@
       <c r="D33" s="1">
         <v>20</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="4">
         <v>100000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <v>2000000</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -1921,10 +2089,10 @@
       <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="4">
         <v>14100000</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <v>14100000</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -1943,10 +2111,10 @@
       <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="4">
         <v>950000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <v>2850000</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -1965,10 +2133,10 @@
       <c r="D36" s="1">
         <v>2</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="4">
         <v>200000</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>400000</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -1987,10 +2155,10 @@
       <c r="D37" s="1">
         <v>2</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="4">
         <v>200000</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>400000</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -2009,10 +2177,10 @@
       <c r="D38" s="1">
         <v>2</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="4">
         <v>150000</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4">
         <v>300000</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -2029,10 +2197,10 @@
         <v>34</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="3">
+      <c r="E39" s="4">
         <v>4000000</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="4">
         <v>4000000</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -2051,10 +2219,10 @@
       <c r="D40" s="1">
         <v>1</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="4">
         <v>400000</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="4">
         <v>400000</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -2073,10 +2241,10 @@
       <c r="D41" s="1">
         <v>1</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="4">
         <v>5000000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4">
         <v>5000000</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -2095,10 +2263,10 @@
       <c r="D42" s="1">
         <v>12</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="4">
         <v>64500000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="4">
         <v>843660000</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -2117,10 +2285,10 @@
       <c r="D43" s="1">
         <v>1</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="4">
         <v>3400000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="4">
         <v>3400000</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -2139,10 +2307,10 @@
       <c r="D44" s="1">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="4">
         <v>81000000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="4">
         <v>706320000</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -2161,10 +2329,10 @@
       <c r="D45" s="1">
         <v>17</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="4">
         <v>550000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="4">
         <v>9350000</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -2183,10 +2351,10 @@
       <c r="D46" s="1">
         <v>2</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="4">
         <v>16700000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="4">
         <v>33400000</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -2205,10 +2373,10 @@
       <c r="D47" s="1">
         <v>1</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="4">
         <v>118000000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="4">
         <v>118000000</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -2227,10 +2395,10 @@
       <c r="D48" s="1">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="4">
         <v>175000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="4">
         <v>17500000</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -2249,10 +2417,10 @@
       <c r="D49" s="1">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="4">
         <v>120000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="4">
         <v>480000</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -2271,10 +2439,10 @@
       <c r="D50" s="1">
         <v>226</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="4">
         <v>19500</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="4">
         <v>4407000</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -2293,10 +2461,10 @@
       <c r="D51" s="1">
         <v>10</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="4">
         <v>15000</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="4">
         <v>150000</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -2315,10 +2483,10 @@
       <c r="D52" s="1">
         <v>12</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="4">
         <v>150000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="4">
         <v>1800000</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -2337,10 +2505,10 @@
       <c r="D53" s="1">
         <v>15</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="4">
         <v>795000</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="4">
         <v>11925000</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -2359,10 +2527,10 @@
       <c r="D54" s="1">
         <v>15</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="4">
         <v>670000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="4">
         <v>10050000</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -2381,10 +2549,10 @@
       <c r="D55" s="1">
         <v>15</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="4">
         <v>465000</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="4">
         <v>6975000</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -2403,10 +2571,10 @@
       <c r="D56" s="1">
         <v>1</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="4">
         <v>500000</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="4">
         <v>500000</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -2425,10 +2593,10 @@
       <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="4">
         <v>4100000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="4">
         <v>4100000</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -2447,10 +2615,10 @@
       <c r="D58" s="1">
         <v>5</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="4">
         <v>900000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="4">
         <v>4500000</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -2469,10 +2637,10 @@
       <c r="D59" s="1">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="4">
         <v>230000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="4">
         <v>1150000</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -2491,10 +2659,10 @@
       <c r="D60" s="1">
         <v>1</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="4">
         <v>28500000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="4">
         <v>28500000</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -2513,10 +2681,10 @@
       <c r="D61" s="1">
         <v>10</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="4">
         <v>90000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="4">
         <v>900000</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -2535,10 +2703,10 @@
       <c r="D62" s="1">
         <v>10</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="4">
         <v>90000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="4">
         <v>900000</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -2557,10 +2725,10 @@
       <c r="D63" s="1">
         <v>2</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="4">
         <v>22000000</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="4">
         <v>44000000</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -2579,10 +2747,10 @@
       <c r="D64" s="1">
         <v>3</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="4">
         <v>12750000</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="4">
         <v>38250000</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -2601,10 +2769,10 @@
       <c r="D65" s="1">
         <v>1</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="4">
         <v>18900000</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="4">
         <v>18900000</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -2623,10 +2791,10 @@
       <c r="D66" s="1">
         <v>1</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="4">
         <v>100000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="4">
         <v>100000</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -2645,10 +2813,10 @@
       <c r="D67" s="1">
         <v>2</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="4">
         <v>70000</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="4">
         <v>1400000</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -2667,10 +2835,10 @@
       <c r="D68" s="1">
         <v>2</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="4">
         <v>750000</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="4">
         <v>1500000</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -2689,10 +2857,10 @@
       <c r="D69" s="1">
         <v>5</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="4">
         <v>9000000</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="4">
         <v>45000000</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -2711,10 +2879,10 @@
       <c r="D70" s="1">
         <v>6</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="4">
         <v>2100000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="4">
         <v>12600000</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -2733,10 +2901,10 @@
       <c r="D71" s="1">
         <v>6</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="4">
         <v>6850000</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="4">
         <v>41100000</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -2749,16 +2917,16 @@
       <c r="B72" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="4">
         <v>805000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="4">
         <v>805000</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -2777,10 +2945,10 @@
       <c r="D73" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="4">
         <v>200000</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="4">
         <v>1000000</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -2799,10 +2967,10 @@
       <c r="D74" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="4">
         <v>10600000</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="4">
         <v>21200000</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -2821,10 +2989,10 @@
       <c r="D75" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="4">
         <v>2450000</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="4">
         <v>2450000</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -2843,10 +3011,10 @@
       <c r="D76" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="4">
         <v>20000000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="4">
         <v>20000000</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -2865,10 +3033,10 @@
       <c r="D77" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="4">
         <v>7200000</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="4">
         <v>7200000</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -2887,10 +3055,10 @@
       <c r="D78" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="4">
         <v>19000000</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="4">
         <v>19000000</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -2909,10 +3077,10 @@
       <c r="D79" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="4">
         <v>750000</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="4">
         <v>750000</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -2931,10 +3099,10 @@
       <c r="D80" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="4">
         <v>60000</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="4">
         <v>180000</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -2953,10 +3121,10 @@
       <c r="D81" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="4">
         <v>110000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="4">
         <v>1100000</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -2975,10 +3143,10 @@
       <c r="D82" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="4">
         <v>392000</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="4">
         <v>19600000</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -2997,10 +3165,10 @@
       <c r="D83" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="4">
         <v>2500000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="4">
         <v>3150000</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -3019,10 +3187,10 @@
       <c r="D84" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="4">
         <v>850000</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="4">
         <v>1700000</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -3041,10 +3209,10 @@
       <c r="D85" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="4">
         <v>150000</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="4">
         <v>150000</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -3063,10 +3231,10 @@
       <c r="D86" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="4">
         <v>300000</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="4">
         <v>1800000</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -3085,10 +3253,10 @@
       <c r="D87" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="4">
         <v>2200000</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="4">
         <v>6600000</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -3107,10 +3275,10 @@
       <c r="D88" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="4">
         <v>1700000</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="4">
         <v>1700000</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -3129,10 +3297,10 @@
       <c r="D89" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="4">
         <v>50000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="4">
         <v>200000</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -3153,10 +3321,10 @@
       <c r="D90" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="4">
         <v>20000</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="4">
         <v>120000</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -3177,10 +3345,10 @@
       <c r="D91" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="4">
         <v>475000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="4">
         <v>9500000</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -3201,10 +3369,10 @@
       <c r="D92" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="4">
         <v>10000000</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="4">
         <v>20000000</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -3225,10 +3393,10 @@
       <c r="D93" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="4">
         <v>1200000</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="4">
         <v>12000000</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -3249,10 +3417,10 @@
       <c r="D94" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="4">
         <v>950000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="4">
         <v>6650000</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -3271,10 +3439,10 @@
       <c r="D95" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="4">
         <v>1180000</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="4">
         <v>7080000</v>
       </c>
       <c r="G95" s="1"/>
@@ -3289,10 +3457,10 @@
       <c r="D96" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="4">
         <v>93800000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="4">
         <v>93800000</v>
       </c>
       <c r="G96" s="1"/>
@@ -3307,10 +3475,10 @@
       <c r="D97" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="4">
         <v>2250000</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="4">
         <v>13500000</v>
       </c>
       <c r="G97" s="1"/>
@@ -3325,10 +3493,10 @@
       <c r="D98" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="4">
         <v>1250000</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="4">
         <v>1250000</v>
       </c>
       <c r="G98" s="1"/>
@@ -3345,10 +3513,10 @@
       <c r="D99" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="4">
         <v>150000</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="4">
         <v>300000</v>
       </c>
       <c r="G99" s="1" t="s">
@@ -3367,10 +3535,10 @@
       <c r="D100" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="4">
         <v>5850000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="4">
         <v>5850000</v>
       </c>
       <c r="G100" s="1"/>
@@ -3385,10 +3553,10 @@
       <c r="D101" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="4">
         <v>29500000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="4">
         <v>147500000</v>
       </c>
       <c r="G101" s="1"/>
@@ -3403,10 +3571,10 @@
       <c r="D102" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="4">
         <v>26400000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="4">
         <v>105600000</v>
       </c>
       <c r="G102" s="1"/>
@@ -3423,10 +3591,10 @@
       <c r="D103" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="4">
         <v>23500000</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="4">
         <v>23500000</v>
       </c>
       <c r="G103" s="1" t="s">
@@ -3447,10 +3615,10 @@
       <c r="D104" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="4">
         <v>13500000</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="4">
         <v>13500000</v>
       </c>
       <c r="G104" s="1" t="s">
@@ -3469,10 +3637,10 @@
       <c r="D105" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="4">
         <v>40000</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="4">
         <v>40000</v>
       </c>
       <c r="G105" s="1" t="s">
@@ -3493,10 +3661,10 @@
       <c r="D106" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="4">
         <v>9450000</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="4">
         <v>18900000</v>
       </c>
       <c r="G106" s="1" t="s">
@@ -3517,10 +3685,10 @@
       <c r="D107" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="4">
         <v>18500000</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="4">
         <v>18500000</v>
       </c>
       <c r="G107" s="1" t="s">
@@ -3541,10 +3709,10 @@
       <c r="D108" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="4">
         <v>2540000</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="4">
         <v>10160000</v>
       </c>
       <c r="G108" s="1" t="s">
@@ -3565,10 +3733,10 @@
       <c r="D109" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="4">
         <v>650000</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="4">
         <v>19500000</v>
       </c>
       <c r="G109" s="1" t="s">
@@ -3589,10 +3757,10 @@
       <c r="D110" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="4">
         <v>7450000</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="4">
         <v>22350000</v>
       </c>
       <c r="G110" s="1" t="s">
@@ -3602,19 +3770,19 @@
         <v>190</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="6" t="s">
         <v>186</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="4">
         <v>11750000</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="4">
         <v>117500000</v>
       </c>
       <c r="G111" s="1"/>
@@ -3629,10 +3797,10 @@
       <c r="D112" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="4">
         <v>250000</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="4">
         <v>1250000</v>
       </c>
       <c r="G112" s="1"/>
@@ -3647,10 +3815,10 @@
       <c r="D113" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="4">
         <v>35000</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="4">
         <v>700000</v>
       </c>
       <c r="G113" s="1"/>
@@ -3667,10 +3835,10 @@
       <c r="D114" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="4">
         <v>1000000</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="4">
         <v>5000000</v>
       </c>
       <c r="G114" s="1" t="s">
@@ -3691,10 +3859,10 @@
       <c r="D115" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="4">
         <v>1400000</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="4">
         <v>16800000</v>
       </c>
       <c r="G115" s="1" t="s">
@@ -3715,10 +3883,10 @@
       <c r="D116" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="4">
         <v>1100000</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="4">
         <v>13200000</v>
       </c>
       <c r="G116" s="1" t="s">
@@ -3739,10 +3907,10 @@
       <c r="D117" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="4">
         <v>7200000</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="4">
         <v>7200000</v>
       </c>
       <c r="G117" s="1" t="s">
@@ -3754,341 +3922,751 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E118" s="4">
+        <v>7050000</v>
+      </c>
+      <c r="F118" s="4">
+        <v>7050000</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
+      <c r="B119" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E119" s="4">
+        <v>9550000</v>
+      </c>
+      <c r="F119" s="4">
+        <v>9550000</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E120" s="4">
+        <v>7700000</v>
+      </c>
+      <c r="F120" s="4">
+        <v>7700000</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
+      <c r="B121" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E121" s="4">
+        <v>11250000</v>
+      </c>
+      <c r="F121" s="4">
+        <v>11250000</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
+      <c r="B122" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E122" s="4">
+        <v>8500000</v>
+      </c>
+      <c r="F122" s="4">
+        <v>17000000</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
+      <c r="C123" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E123" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F123" s="4">
+        <v>1000000</v>
+      </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
+      <c r="C124" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E124" s="4">
+        <v>32000</v>
+      </c>
+      <c r="F124" s="4">
+        <v>640000</v>
+      </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
+      <c r="C125" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E125" s="4">
+        <v>47000</v>
+      </c>
+      <c r="F125" s="4">
+        <v>470000</v>
+      </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
+      <c r="C126" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E126" s="4">
+        <v>219000</v>
+      </c>
+      <c r="F126" s="4">
+        <v>2190000</v>
+      </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
+      <c r="B127" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E127" s="4">
+        <v>5450000</v>
+      </c>
+      <c r="F127" s="4">
+        <v>16350000</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
+      <c r="B128" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E128" s="4">
+        <v>680000</v>
+      </c>
+      <c r="F128" s="4">
+        <v>68000000</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
+      <c r="B129" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E129" s="4">
+        <v>895000</v>
+      </c>
+      <c r="F129" s="4">
+        <v>17900000</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E130" s="4">
+        <v>3800000</v>
+      </c>
+      <c r="F130" s="4">
+        <v>3800000</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
+      <c r="B131" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E131" s="4">
+        <v>10700000</v>
+      </c>
+      <c r="F131" s="4">
+        <v>10700000</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
+      <c r="B132" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E132" s="4">
+        <v>13400000</v>
+      </c>
+      <c r="F132" s="4">
+        <v>13400000</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
+      <c r="B133" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E133" s="4">
+        <v>6500000</v>
+      </c>
+      <c r="F133" s="4">
+        <v>6500000</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
+      <c r="B134" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E134" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F134" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
+      <c r="B135" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E135" s="4">
+        <v>18000000</v>
+      </c>
+      <c r="F135" s="4">
+        <v>18000000</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
+      <c r="B136" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E136" s="4">
+        <v>32500000</v>
+      </c>
+      <c r="F136" s="4">
+        <v>32500000</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
+      <c r="B137" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E137" s="4">
+        <v>15500000</v>
+      </c>
+      <c r="F137" s="4">
+        <v>31000000</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
+      <c r="B138" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E138" s="4">
+        <v>750000</v>
+      </c>
+      <c r="F138" s="4">
+        <v>1500000</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
+      <c r="B139" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E139" s="4">
+        <v>830000</v>
+      </c>
+      <c r="F139" s="4">
+        <v>4980000</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
+      <c r="B140" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E140" s="4">
+        <v>2550000</v>
+      </c>
+      <c r="F140" s="4">
+        <v>25500000</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
+      <c r="B141" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E141" s="4">
+        <v>4500000</v>
+      </c>
+      <c r="F141" s="4">
+        <v>4500000</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
+      <c r="B142" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E142" s="4">
+        <v>1750000</v>
+      </c>
+      <c r="F142" s="4">
+        <v>17500000</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
+      <c r="C143" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E143" s="4">
+        <v>285000</v>
+      </c>
+      <c r="F143" s="4">
+        <v>5700000</v>
+      </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
+      <c r="B144" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E144" s="4">
+        <v>40000</v>
+      </c>
+      <c r="F144" s="4">
+        <v>800000</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
+      <c r="C145" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E145" s="4">
+        <v>900000</v>
+      </c>
+      <c r="F145" s="4">
+        <v>9000000</v>
+      </c>
       <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
+      <c r="H145" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
+      <c r="B146" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E146" s="4">
+        <v>29500000</v>
+      </c>
+      <c r="F146" s="4">
+        <v>29500000</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
+      <c r="C147" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E147" s="4">
+        <v>10900000</v>
+      </c>
+      <c r="F147" s="4">
+        <v>109000000</v>
+      </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
+      <c r="C148" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E148" s="4">
+        <v>2250000</v>
+      </c>
+      <c r="F148" s="4">
+        <v>9000000</v>
+      </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
+      <c r="C149" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E149" s="4">
+        <v>1250000</v>
+      </c>
+      <c r="F149" s="4">
+        <v>6250000</v>
+      </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
+      <c r="B150" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E150" s="4">
+        <v>280000</v>
+      </c>
+      <c r="F150" s="4">
+        <v>14000000</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
@@ -4097,8 +4675,8 @@
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
@@ -4107,8 +4685,8 @@
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
@@ -4117,8 +4695,8 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
@@ -4127,8 +4705,8 @@
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
@@ -4137,8 +4715,8 @@
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
@@ -4147,8 +4725,8 @@
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
@@ -4157,8 +4735,8 @@
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
@@ -4167,8 +4745,8 @@
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
@@ -4177,8 +4755,8 @@
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
@@ -4187,8 +4765,8 @@
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
@@ -4197,8 +4775,8 @@
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
@@ -4207,8 +4785,8 @@
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
@@ -4217,8 +4795,8 @@
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
@@ -4227,8 +4805,8 @@
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
@@ -4237,8 +4815,8 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
@@ -4247,8 +4825,8 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
@@ -4257,8 +4835,8 @@
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
@@ -4267,8 +4845,8 @@
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
@@ -4277,8 +4855,8 @@
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
@@ -4287,8 +4865,8 @@
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
@@ -4297,8 +4875,8 @@
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
@@ -4307,8 +4885,8 @@
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
@@ -4317,8 +4895,8 @@
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
@@ -4327,8 +4905,8 @@
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
@@ -4337,8 +4915,8 @@
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
@@ -4347,8 +4925,8 @@
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
@@ -4357,8 +4935,8 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
@@ -4367,8 +4945,8 @@
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
@@ -4377,8 +4955,8 @@
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
@@ -4387,8 +4965,8 @@
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
@@ -4397,8 +4975,8 @@
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
@@ -4407,8 +4985,8 @@
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
@@ -4417,8 +4995,8 @@
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
@@ -4427,8 +5005,8 @@
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
@@ -4437,8 +5015,8 @@
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
@@ -4447,8 +5025,8 @@
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
@@ -4457,8 +5035,8 @@
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
@@ -4467,8 +5045,8 @@
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
@@ -4477,8 +5055,8 @@
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
@@ -4487,8 +5065,8 @@
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
@@ -4497,8 +5075,8 @@
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
@@ -4507,8 +5085,8 @@
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
@@ -4517,8 +5095,8 @@
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
@@ -4527,8 +5105,8 @@
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
@@ -4537,8 +5115,8 @@
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
@@ -4547,8 +5125,8 @@
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
@@ -4557,8 +5135,8 @@
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
@@ -4567,8 +5145,8 @@
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
@@ -4577,8 +5155,8 @@
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
@@ -4587,8 +5165,8 @@
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
@@ -4597,8 +5175,8 @@
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
@@ -4607,8 +5185,8 @@
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
@@ -4617,8 +5195,8 @@
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
@@ -4627,8 +5205,8 @@
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
@@ -4637,8 +5215,8 @@
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
@@ -4647,8 +5225,8 @@
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
@@ -4657,8 +5235,8 @@
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
@@ -4667,8 +5245,8 @@
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
@@ -4677,8 +5255,8 @@
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
@@ -4687,8 +5265,8 @@
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
@@ -4697,8 +5275,8 @@
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
@@ -4707,8 +5285,8 @@
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
@@ -4717,8 +5295,8 @@
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
@@ -4727,8 +5305,8 @@
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
@@ -4737,8 +5315,8 @@
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
@@ -4747,8 +5325,8 @@
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
@@ -4757,8 +5335,8 @@
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
@@ -4767,8 +5345,8 @@
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
@@ -4777,8 +5355,8 @@
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
@@ -4787,8 +5365,8 @@
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
@@ -4797,8 +5375,8 @@
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
@@ -4807,8 +5385,8 @@
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
@@ -4817,8 +5395,8 @@
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
@@ -4827,8 +5405,8 @@
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
@@ -4837,8 +5415,8 @@
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
+      <c r="E226" s="4"/>
+      <c r="F226" s="4"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
@@ -4847,8 +5425,8 @@
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
@@ -4857,8 +5435,8 @@
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
@@ -4867,8 +5445,8 @@
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
@@ -4877,8 +5455,8 @@
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
@@ -4887,8 +5465,8 @@
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
@@ -4897,8 +5475,8 @@
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="4"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
@@ -4907,8 +5485,8 @@
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="4"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
@@ -4917,8 +5495,8 @@
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="4"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
@@ -4927,8 +5505,8 @@
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="4"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
@@ -4937,8 +5515,8 @@
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="3"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="4"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
@@ -4947,8 +5525,8 @@
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
@@ -4957,8 +5535,8 @@
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
@@ -4967,8 +5545,8 @@
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
@@ -4977,8 +5555,8 @@
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
@@ -4987,8 +5565,8 @@
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
@@ -4997,8 +5575,8 @@
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
@@ -5007,8 +5585,8 @@
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="4"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
@@ -5017,8 +5595,8 @@
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
@@ -5027,8 +5605,8 @@
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
@@ -5037,8 +5615,8 @@
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
@@ -5047,8 +5625,8 @@
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
@@ -5057,8 +5635,8 @@
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
+      <c r="E248" s="4"/>
+      <c r="F248" s="4"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
@@ -5067,8 +5645,8 @@
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="4"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
@@ -5077,8 +5655,8 @@
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
+      <c r="E250" s="4"/>
+      <c r="F250" s="4"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
@@ -5087,8 +5665,8 @@
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
-      <c r="E251" s="3"/>
-      <c r="F251" s="3"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="4"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
@@ -5097,8 +5675,8 @@
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="4"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
@@ -5107,8 +5685,8 @@
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
+      <c r="E253" s="4"/>
+      <c r="F253" s="4"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
@@ -5117,8 +5695,8 @@
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
@@ -5127,8 +5705,8 @@
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
-      <c r="E255" s="3"/>
-      <c r="F255" s="3"/>
+      <c r="E255" s="4"/>
+      <c r="F255" s="4"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
@@ -5137,8 +5715,8 @@
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
-      <c r="E256" s="3"/>
-      <c r="F256" s="3"/>
+      <c r="E256" s="4"/>
+      <c r="F256" s="4"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
@@ -5147,8 +5725,8 @@
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
-      <c r="E257" s="3"/>
-      <c r="F257" s="3"/>
+      <c r="E257" s="4"/>
+      <c r="F257" s="4"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
@@ -5157,8 +5735,8 @@
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
-      <c r="E258" s="3"/>
-      <c r="F258" s="3"/>
+      <c r="E258" s="4"/>
+      <c r="F258" s="4"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
@@ -5167,8 +5745,8 @@
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
-      <c r="E259" s="3"/>
-      <c r="F259" s="3"/>
+      <c r="E259" s="4"/>
+      <c r="F259" s="4"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
@@ -5177,8 +5755,8 @@
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
-      <c r="E260" s="3"/>
-      <c r="F260" s="3"/>
+      <c r="E260" s="4"/>
+      <c r="F260" s="4"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
@@ -5187,8 +5765,8 @@
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
-      <c r="E261" s="3"/>
-      <c r="F261" s="3"/>
+      <c r="E261" s="4"/>
+      <c r="F261" s="4"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
@@ -5197,8 +5775,8 @@
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
-      <c r="E262" s="3"/>
-      <c r="F262" s="3"/>
+      <c r="E262" s="4"/>
+      <c r="F262" s="4"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
@@ -5207,8 +5785,8 @@
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
-      <c r="E263" s="3"/>
-      <c r="F263" s="3"/>
+      <c r="E263" s="4"/>
+      <c r="F263" s="4"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
@@ -5217,8 +5795,8 @@
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
-      <c r="E264" s="3"/>
-      <c r="F264" s="3"/>
+      <c r="E264" s="4"/>
+      <c r="F264" s="4"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
@@ -5227,8 +5805,8 @@
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
+      <c r="E265" s="4"/>
+      <c r="F265" s="4"/>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
@@ -5237,8 +5815,8 @@
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
-      <c r="E266" s="3"/>
-      <c r="F266" s="3"/>
+      <c r="E266" s="4"/>
+      <c r="F266" s="4"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
@@ -5247,8 +5825,8 @@
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
-      <c r="E267" s="3"/>
-      <c r="F267" s="3"/>
+      <c r="E267" s="4"/>
+      <c r="F267" s="4"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
@@ -5257,8 +5835,8 @@
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
-      <c r="E268" s="3"/>
-      <c r="F268" s="3"/>
+      <c r="E268" s="4"/>
+      <c r="F268" s="4"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
@@ -5267,8 +5845,8 @@
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
+      <c r="E269" s="4"/>
+      <c r="F269" s="4"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
@@ -5277,8 +5855,8 @@
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
-      <c r="E270" s="3"/>
-      <c r="F270" s="3"/>
+      <c r="E270" s="4"/>
+      <c r="F270" s="4"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
@@ -5287,8 +5865,8 @@
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
-      <c r="E271" s="3"/>
-      <c r="F271" s="3"/>
+      <c r="E271" s="4"/>
+      <c r="F271" s="4"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
@@ -5297,8 +5875,8 @@
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
-      <c r="E272" s="3"/>
-      <c r="F272" s="3"/>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
@@ -5307,8 +5885,8 @@
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="3"/>
+      <c r="E273" s="4"/>
+      <c r="F273" s="4"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
@@ -5317,8 +5895,8 @@
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
-      <c r="E274" s="3"/>
-      <c r="F274" s="3"/>
+      <c r="E274" s="4"/>
+      <c r="F274" s="4"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
@@ -5327,8 +5905,8 @@
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
-      <c r="E275" s="3"/>
-      <c r="F275" s="3"/>
+      <c r="E275" s="4"/>
+      <c r="F275" s="4"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
@@ -5337,8 +5915,8 @@
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
-      <c r="E276" s="3"/>
-      <c r="F276" s="3"/>
+      <c r="E276" s="4"/>
+      <c r="F276" s="4"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
@@ -5347,8 +5925,8 @@
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
-      <c r="E277" s="3"/>
-      <c r="F277" s="3"/>
+      <c r="E277" s="4"/>
+      <c r="F277" s="4"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
@@ -5357,8 +5935,8 @@
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
-      <c r="E278" s="3"/>
-      <c r="F278" s="3"/>
+      <c r="E278" s="4"/>
+      <c r="F278" s="4"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
@@ -5367,8 +5945,8 @@
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
-      <c r="E279" s="3"/>
-      <c r="F279" s="3"/>
+      <c r="E279" s="4"/>
+      <c r="F279" s="4"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
@@ -5377,8 +5955,8 @@
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
-      <c r="E280" s="3"/>
-      <c r="F280" s="3"/>
+      <c r="E280" s="4"/>
+      <c r="F280" s="4"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
@@ -5387,8 +5965,8 @@
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
-      <c r="E281" s="3"/>
-      <c r="F281" s="3"/>
+      <c r="E281" s="4"/>
+      <c r="F281" s="4"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
@@ -5397,8 +5975,8 @@
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
-      <c r="E282" s="3"/>
-      <c r="F282" s="3"/>
+      <c r="E282" s="4"/>
+      <c r="F282" s="4"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
@@ -5407,8 +5985,8 @@
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
-      <c r="E283" s="3"/>
-      <c r="F283" s="3"/>
+      <c r="E283" s="4"/>
+      <c r="F283" s="4"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
@@ -5417,8 +5995,8 @@
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
-      <c r="E284" s="3"/>
-      <c r="F284" s="3"/>
+      <c r="E284" s="4"/>
+      <c r="F284" s="4"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
@@ -5427,8 +6005,8 @@
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
-      <c r="E285" s="3"/>
-      <c r="F285" s="3"/>
+      <c r="E285" s="4"/>
+      <c r="F285" s="4"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
@@ -5437,8 +6015,8 @@
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
-      <c r="E286" s="3"/>
-      <c r="F286" s="3"/>
+      <c r="E286" s="4"/>
+      <c r="F286" s="4"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
@@ -5447,8 +6025,8 @@
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
-      <c r="E287" s="3"/>
-      <c r="F287" s="3"/>
+      <c r="E287" s="4"/>
+      <c r="F287" s="4"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
@@ -5457,8 +6035,8 @@
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
-      <c r="E288" s="3"/>
-      <c r="F288" s="3"/>
+      <c r="E288" s="4"/>
+      <c r="F288" s="4"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
@@ -5467,8 +6045,8 @@
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
-      <c r="E289" s="3"/>
-      <c r="F289" s="3"/>
+      <c r="E289" s="4"/>
+      <c r="F289" s="4"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
@@ -5477,8 +6055,8 @@
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
-      <c r="E290" s="3"/>
-      <c r="F290" s="3"/>
+      <c r="E290" s="4"/>
+      <c r="F290" s="4"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
@@ -5487,8 +6065,8 @@
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
-      <c r="E291" s="3"/>
-      <c r="F291" s="3"/>
+      <c r="E291" s="4"/>
+      <c r="F291" s="4"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
@@ -5497,8 +6075,8 @@
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
-      <c r="E292" s="3"/>
-      <c r="F292" s="3"/>
+      <c r="E292" s="4"/>
+      <c r="F292" s="4"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
@@ -5507,8 +6085,8 @@
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
-      <c r="E293" s="3"/>
-      <c r="F293" s="3"/>
+      <c r="E293" s="4"/>
+      <c r="F293" s="4"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
@@ -5517,8 +6095,8 @@
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
-      <c r="E294" s="3"/>
-      <c r="F294" s="3"/>
+      <c r="E294" s="4"/>
+      <c r="F294" s="4"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
@@ -5527,8 +6105,8 @@
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
-      <c r="E295" s="3"/>
-      <c r="F295" s="3"/>
+      <c r="E295" s="4"/>
+      <c r="F295" s="4"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
@@ -5537,8 +6115,8 @@
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
-      <c r="E296" s="3"/>
-      <c r="F296" s="3"/>
+      <c r="E296" s="4"/>
+      <c r="F296" s="4"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
@@ -5547,8 +6125,8 @@
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
-      <c r="E297" s="3"/>
-      <c r="F297" s="3"/>
+      <c r="E297" s="4"/>
+      <c r="F297" s="4"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
@@ -5557,8 +6135,8 @@
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
-      <c r="E298" s="3"/>
-      <c r="F298" s="3"/>
+      <c r="E298" s="4"/>
+      <c r="F298" s="4"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
@@ -5567,8 +6145,8 @@
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
-      <c r="E299" s="3"/>
-      <c r="F299" s="3"/>
+      <c r="E299" s="4"/>
+      <c r="F299" s="4"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
@@ -5577,8 +6155,8 @@
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
-      <c r="E300" s="3"/>
-      <c r="F300" s="3"/>
+      <c r="E300" s="4"/>
+      <c r="F300" s="4"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
@@ -5587,8 +6165,8 @@
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
-      <c r="E301" s="3"/>
-      <c r="F301" s="3"/>
+      <c r="E301" s="4"/>
+      <c r="F301" s="4"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
@@ -5597,8 +6175,8 @@
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
-      <c r="E302" s="3"/>
-      <c r="F302" s="3"/>
+      <c r="E302" s="4"/>
+      <c r="F302" s="4"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
@@ -5607,8 +6185,8 @@
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
-      <c r="E303" s="3"/>
-      <c r="F303" s="3"/>
+      <c r="E303" s="4"/>
+      <c r="F303" s="4"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
@@ -5617,8 +6195,8 @@
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
-      <c r="E304" s="3"/>
-      <c r="F304" s="3"/>
+      <c r="E304" s="4"/>
+      <c r="F304" s="4"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
@@ -5627,8 +6205,8 @@
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
-      <c r="E305" s="3"/>
-      <c r="F305" s="3"/>
+      <c r="E305" s="4"/>
+      <c r="F305" s="4"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
@@ -5637,8 +6215,8 @@
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
-      <c r="E306" s="3"/>
-      <c r="F306" s="3"/>
+      <c r="E306" s="4"/>
+      <c r="F306" s="4"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
@@ -5647,8 +6225,8 @@
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
-      <c r="E307" s="3"/>
-      <c r="F307" s="3"/>
+      <c r="E307" s="4"/>
+      <c r="F307" s="4"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
@@ -5657,8 +6235,8 @@
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
-      <c r="E308" s="3"/>
-      <c r="F308" s="3"/>
+      <c r="E308" s="4"/>
+      <c r="F308" s="4"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
@@ -5667,8 +6245,8 @@
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
-      <c r="E309" s="3"/>
-      <c r="F309" s="3"/>
+      <c r="E309" s="4"/>
+      <c r="F309" s="4"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
@@ -5677,8 +6255,8 @@
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
-      <c r="E310" s="3"/>
-      <c r="F310" s="3"/>
+      <c r="E310" s="4"/>
+      <c r="F310" s="4"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
@@ -5687,8 +6265,8 @@
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
-      <c r="E311" s="3"/>
-      <c r="F311" s="3"/>
+      <c r="E311" s="4"/>
+      <c r="F311" s="4"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
@@ -5697,8 +6275,8 @@
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
-      <c r="E312" s="3"/>
-      <c r="F312" s="3"/>
+      <c r="E312" s="4"/>
+      <c r="F312" s="4"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
@@ -5707,8 +6285,8 @@
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
-      <c r="E313" s="3"/>
-      <c r="F313" s="3"/>
+      <c r="E313" s="4"/>
+      <c r="F313" s="4"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
@@ -5717,8 +6295,8 @@
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
-      <c r="E314" s="3"/>
-      <c r="F314" s="3"/>
+      <c r="E314" s="4"/>
+      <c r="F314" s="4"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
@@ -5727,8 +6305,8 @@
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
-      <c r="E315" s="3"/>
-      <c r="F315" s="3"/>
+      <c r="E315" s="4"/>
+      <c r="F315" s="4"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
@@ -5737,8 +6315,8 @@
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
-      <c r="E316" s="3"/>
-      <c r="F316" s="3"/>
+      <c r="E316" s="4"/>
+      <c r="F316" s="4"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
@@ -5747,8 +6325,8 @@
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
-      <c r="E317" s="3"/>
-      <c r="F317" s="3"/>
+      <c r="E317" s="4"/>
+      <c r="F317" s="4"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
@@ -5757,8 +6335,8 @@
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
-      <c r="E318" s="3"/>
-      <c r="F318" s="3"/>
+      <c r="E318" s="4"/>
+      <c r="F318" s="4"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
@@ -5767,8 +6345,8 @@
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
-      <c r="E319" s="3"/>
-      <c r="F319" s="3"/>
+      <c r="E319" s="4"/>
+      <c r="F319" s="4"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
@@ -5777,8 +6355,8 @@
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
-      <c r="E320" s="3"/>
-      <c r="F320" s="3"/>
+      <c r="E320" s="4"/>
+      <c r="F320" s="4"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
@@ -5787,8 +6365,8 @@
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
-      <c r="E321" s="3"/>
-      <c r="F321" s="3"/>
+      <c r="E321" s="4"/>
+      <c r="F321" s="4"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
@@ -5797,8 +6375,8 @@
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
-      <c r="E322" s="3"/>
-      <c r="F322" s="3"/>
+      <c r="E322" s="4"/>
+      <c r="F322" s="4"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
@@ -5807,8 +6385,8 @@
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
-      <c r="E323" s="3"/>
-      <c r="F323" s="3"/>
+      <c r="E323" s="4"/>
+      <c r="F323" s="4"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
@@ -5817,8 +6395,8 @@
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
-      <c r="E324" s="3"/>
-      <c r="F324" s="3"/>
+      <c r="E324" s="4"/>
+      <c r="F324" s="4"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
@@ -5827,8 +6405,8 @@
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
-      <c r="E325" s="3"/>
-      <c r="F325" s="3"/>
+      <c r="E325" s="4"/>
+      <c r="F325" s="4"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
@@ -5837,8 +6415,8 @@
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
-      <c r="E326" s="3"/>
-      <c r="F326" s="3"/>
+      <c r="E326" s="4"/>
+      <c r="F326" s="4"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
@@ -5847,8 +6425,8 @@
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
-      <c r="E327" s="3"/>
-      <c r="F327" s="3"/>
+      <c r="E327" s="4"/>
+      <c r="F327" s="4"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
@@ -5857,8 +6435,8 @@
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
-      <c r="E328" s="3"/>
-      <c r="F328" s="3"/>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
@@ -5867,8 +6445,8 @@
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
-      <c r="E329" s="3"/>
-      <c r="F329" s="3"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
@@ -5877,8 +6455,8 @@
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
-      <c r="E330" s="3"/>
-      <c r="F330" s="3"/>
+      <c r="E330" s="4"/>
+      <c r="F330" s="4"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
@@ -5887,8 +6465,8 @@
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
-      <c r="E331" s="3"/>
-      <c r="F331" s="3"/>
+      <c r="E331" s="4"/>
+      <c r="F331" s="4"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
@@ -5897,8 +6475,8 @@
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
-      <c r="E332" s="3"/>
-      <c r="F332" s="3"/>
+      <c r="E332" s="4"/>
+      <c r="F332" s="4"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
@@ -5907,8 +6485,8 @@
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
-      <c r="E333" s="3"/>
-      <c r="F333" s="3"/>
+      <c r="E333" s="4"/>
+      <c r="F333" s="4"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
@@ -5917,8 +6495,8 @@
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
-      <c r="E334" s="3"/>
-      <c r="F334" s="3"/>
+      <c r="E334" s="4"/>
+      <c r="F334" s="4"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
@@ -5927,8 +6505,8 @@
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
-      <c r="E335" s="3"/>
-      <c r="F335" s="3"/>
+      <c r="E335" s="4"/>
+      <c r="F335" s="4"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
@@ -5937,8 +6515,8 @@
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
-      <c r="E336" s="3"/>
-      <c r="F336" s="3"/>
+      <c r="E336" s="4"/>
+      <c r="F336" s="4"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
@@ -5947,8 +6525,8 @@
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
-      <c r="E337" s="3"/>
-      <c r="F337" s="3"/>
+      <c r="E337" s="4"/>
+      <c r="F337" s="4"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
@@ -5957,8 +6535,8 @@
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
-      <c r="E338" s="3"/>
-      <c r="F338" s="3"/>
+      <c r="E338" s="4"/>
+      <c r="F338" s="4"/>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
@@ -5967,8 +6545,8 @@
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
-      <c r="E339" s="3"/>
-      <c r="F339" s="3"/>
+      <c r="E339" s="4"/>
+      <c r="F339" s="4"/>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
@@ -5977,8 +6555,8 @@
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
-      <c r="E340" s="3"/>
-      <c r="F340" s="3"/>
+      <c r="E340" s="4"/>
+      <c r="F340" s="4"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
@@ -5987,8 +6565,8 @@
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
-      <c r="E341" s="3"/>
-      <c r="F341" s="3"/>
+      <c r="E341" s="4"/>
+      <c r="F341" s="4"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
@@ -5997,8 +6575,8 @@
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
-      <c r="E342" s="3"/>
-      <c r="F342" s="3"/>
+      <c r="E342" s="4"/>
+      <c r="F342" s="4"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
@@ -6007,8 +6585,8 @@
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
-      <c r="E343" s="3"/>
-      <c r="F343" s="3"/>
+      <c r="E343" s="4"/>
+      <c r="F343" s="4"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
@@ -6017,8 +6595,8 @@
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
-      <c r="E344" s="3"/>
-      <c r="F344" s="3"/>
+      <c r="E344" s="4"/>
+      <c r="F344" s="4"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
@@ -6027,8 +6605,8 @@
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
-      <c r="E345" s="3"/>
-      <c r="F345" s="3"/>
+      <c r="E345" s="4"/>
+      <c r="F345" s="4"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
@@ -6037,8 +6615,8 @@
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
-      <c r="E346" s="3"/>
-      <c r="F346" s="3"/>
+      <c r="E346" s="4"/>
+      <c r="F346" s="4"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
@@ -6047,8 +6625,8 @@
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
-      <c r="E347" s="3"/>
-      <c r="F347" s="3"/>
+      <c r="E347" s="4"/>
+      <c r="F347" s="4"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
@@ -6057,8 +6635,8 @@
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
-      <c r="E348" s="3"/>
-      <c r="F348" s="3"/>
+      <c r="E348" s="4"/>
+      <c r="F348" s="4"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
@@ -6067,8 +6645,8 @@
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
-      <c r="E349" s="3"/>
-      <c r="F349" s="3"/>
+      <c r="E349" s="4"/>
+      <c r="F349" s="4"/>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
@@ -6077,8 +6655,8 @@
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
-      <c r="E350" s="3"/>
-      <c r="F350" s="3"/>
+      <c r="E350" s="4"/>
+      <c r="F350" s="4"/>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
@@ -6087,8 +6665,8 @@
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
-      <c r="E351" s="3"/>
-      <c r="F351" s="3"/>
+      <c r="E351" s="4"/>
+      <c r="F351" s="4"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
@@ -6097,8 +6675,8 @@
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
-      <c r="E352" s="3"/>
-      <c r="F352" s="3"/>
+      <c r="E352" s="4"/>
+      <c r="F352" s="4"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
@@ -6107,8 +6685,8 @@
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
-      <c r="E353" s="3"/>
-      <c r="F353" s="3"/>
+      <c r="E353" s="4"/>
+      <c r="F353" s="4"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
@@ -6117,8 +6695,8 @@
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
-      <c r="E354" s="3"/>
-      <c r="F354" s="3"/>
+      <c r="E354" s="4"/>
+      <c r="F354" s="4"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
@@ -6127,8 +6705,8 @@
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
-      <c r="E355" s="3"/>
-      <c r="F355" s="3"/>
+      <c r="E355" s="4"/>
+      <c r="F355" s="4"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
@@ -6137,8 +6715,8 @@
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
-      <c r="E356" s="3"/>
-      <c r="F356" s="3"/>
+      <c r="E356" s="4"/>
+      <c r="F356" s="4"/>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
@@ -6147,8 +6725,8 @@
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
-      <c r="E357" s="3"/>
-      <c r="F357" s="3"/>
+      <c r="E357" s="4"/>
+      <c r="F357" s="4"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
@@ -6157,8 +6735,8 @@
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
-      <c r="E358" s="3"/>
-      <c r="F358" s="3"/>
+      <c r="E358" s="4"/>
+      <c r="F358" s="4"/>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
@@ -6167,8 +6745,8 @@
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
-      <c r="E359" s="3"/>
-      <c r="F359" s="3"/>
+      <c r="E359" s="4"/>
+      <c r="F359" s="4"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
@@ -6177,8 +6755,8 @@
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
-      <c r="E360" s="3"/>
-      <c r="F360" s="3"/>
+      <c r="E360" s="4"/>
+      <c r="F360" s="4"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
@@ -6187,8 +6765,8 @@
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
-      <c r="E361" s="3"/>
-      <c r="F361" s="3"/>
+      <c r="E361" s="4"/>
+      <c r="F361" s="4"/>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
@@ -6197,8 +6775,8 @@
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
-      <c r="E362" s="3"/>
-      <c r="F362" s="3"/>
+      <c r="E362" s="4"/>
+      <c r="F362" s="4"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
@@ -6207,8 +6785,8 @@
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
-      <c r="E363" s="3"/>
-      <c r="F363" s="3"/>
+      <c r="E363" s="4"/>
+      <c r="F363" s="4"/>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
@@ -6217,8 +6795,8 @@
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
-      <c r="E364" s="3"/>
-      <c r="F364" s="3"/>
+      <c r="E364" s="4"/>
+      <c r="F364" s="4"/>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
@@ -6227,8 +6805,8 @@
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
-      <c r="E365" s="3"/>
-      <c r="F365" s="3"/>
+      <c r="E365" s="4"/>
+      <c r="F365" s="4"/>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
@@ -6237,8 +6815,8 @@
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
-      <c r="E366" s="3"/>
-      <c r="F366" s="3"/>
+      <c r="E366" s="4"/>
+      <c r="F366" s="4"/>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
@@ -6247,8 +6825,8 @@
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
-      <c r="E367" s="3"/>
-      <c r="F367" s="3"/>
+      <c r="E367" s="4"/>
+      <c r="F367" s="4"/>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
@@ -6257,8 +6835,8 @@
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
-      <c r="E368" s="3"/>
-      <c r="F368" s="3"/>
+      <c r="E368" s="4"/>
+      <c r="F368" s="4"/>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
@@ -6267,8 +6845,8 @@
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
-      <c r="E369" s="3"/>
-      <c r="F369" s="3"/>
+      <c r="E369" s="4"/>
+      <c r="F369" s="4"/>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
@@ -6277,8 +6855,8 @@
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
-      <c r="E370" s="3"/>
-      <c r="F370" s="3"/>
+      <c r="E370" s="4"/>
+      <c r="F370" s="4"/>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
@@ -6287,8 +6865,8 @@
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
-      <c r="E371" s="3"/>
-      <c r="F371" s="3"/>
+      <c r="E371" s="4"/>
+      <c r="F371" s="4"/>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
@@ -6297,8 +6875,8 @@
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
-      <c r="E372" s="3"/>
-      <c r="F372" s="3"/>
+      <c r="E372" s="4"/>
+      <c r="F372" s="4"/>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
@@ -6307,8 +6885,8 @@
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
-      <c r="E373" s="3"/>
-      <c r="F373" s="3"/>
+      <c r="E373" s="4"/>
+      <c r="F373" s="4"/>
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
@@ -6317,8 +6895,8 @@
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
-      <c r="E374" s="3"/>
-      <c r="F374" s="3"/>
+      <c r="E374" s="4"/>
+      <c r="F374" s="4"/>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
@@ -6327,8 +6905,8 @@
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
-      <c r="E375" s="3"/>
-      <c r="F375" s="3"/>
+      <c r="E375" s="4"/>
+      <c r="F375" s="4"/>
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
@@ -6337,8 +6915,8 @@
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
-      <c r="E376" s="3"/>
-      <c r="F376" s="3"/>
+      <c r="E376" s="4"/>
+      <c r="F376" s="4"/>
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
@@ -6347,8 +6925,8 @@
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
-      <c r="E377" s="3"/>
-      <c r="F377" s="3"/>
+      <c r="E377" s="4"/>
+      <c r="F377" s="4"/>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
@@ -6357,8 +6935,8 @@
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
-      <c r="E378" s="3"/>
-      <c r="F378" s="3"/>
+      <c r="E378" s="4"/>
+      <c r="F378" s="4"/>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
@@ -6367,8 +6945,8 @@
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
-      <c r="E379" s="3"/>
-      <c r="F379" s="3"/>
+      <c r="E379" s="4"/>
+      <c r="F379" s="4"/>
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
@@ -6377,8 +6955,8 @@
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
-      <c r="E380" s="3"/>
-      <c r="F380" s="3"/>
+      <c r="E380" s="4"/>
+      <c r="F380" s="4"/>
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
@@ -6387,8 +6965,8 @@
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
-      <c r="E381" s="3"/>
-      <c r="F381" s="3"/>
+      <c r="E381" s="4"/>
+      <c r="F381" s="4"/>
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
@@ -6397,8 +6975,8 @@
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
-      <c r="E382" s="3"/>
-      <c r="F382" s="3"/>
+      <c r="E382" s="4"/>
+      <c r="F382" s="4"/>
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
@@ -6407,8 +6985,8 @@
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
-      <c r="E383" s="3"/>
-      <c r="F383" s="3"/>
+      <c r="E383" s="4"/>
+      <c r="F383" s="4"/>
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
@@ -6417,8 +6995,8 @@
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
-      <c r="E384" s="3"/>
-      <c r="F384" s="3"/>
+      <c r="E384" s="4"/>
+      <c r="F384" s="4"/>
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
@@ -6427,8 +7005,8 @@
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
-      <c r="E385" s="3"/>
-      <c r="F385" s="3"/>
+      <c r="E385" s="4"/>
+      <c r="F385" s="4"/>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
@@ -6437,8 +7015,8 @@
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
-      <c r="E386" s="3"/>
-      <c r="F386" s="3"/>
+      <c r="E386" s="4"/>
+      <c r="F386" s="4"/>
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
@@ -6447,8 +7025,8 @@
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
-      <c r="E387" s="3"/>
-      <c r="F387" s="3"/>
+      <c r="E387" s="4"/>
+      <c r="F387" s="4"/>
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
@@ -6457,8 +7035,8 @@
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
-      <c r="E388" s="3"/>
-      <c r="F388" s="3"/>
+      <c r="E388" s="4"/>
+      <c r="F388" s="4"/>
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
@@ -6467,8 +7045,8 @@
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
-      <c r="E389" s="3"/>
-      <c r="F389" s="3"/>
+      <c r="E389" s="4"/>
+      <c r="F389" s="4"/>
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
@@ -6477,8 +7055,8 @@
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
-      <c r="E390" s="3"/>
-      <c r="F390" s="3"/>
+      <c r="E390" s="4"/>
+      <c r="F390" s="4"/>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
@@ -6487,8 +7065,8 @@
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
-      <c r="E391" s="3"/>
-      <c r="F391" s="3"/>
+      <c r="E391" s="4"/>
+      <c r="F391" s="4"/>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
@@ -6497,8 +7075,8 @@
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
-      <c r="E392" s="3"/>
-      <c r="F392" s="3"/>
+      <c r="E392" s="4"/>
+      <c r="F392" s="4"/>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
@@ -6507,8 +7085,8 @@
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
-      <c r="E393" s="3"/>
-      <c r="F393" s="3"/>
+      <c r="E393" s="4"/>
+      <c r="F393" s="4"/>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
@@ -6517,8 +7095,8 @@
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
-      <c r="E394" s="3"/>
-      <c r="F394" s="3"/>
+      <c r="E394" s="4"/>
+      <c r="F394" s="4"/>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
@@ -6527,8 +7105,8 @@
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
-      <c r="E395" s="3"/>
-      <c r="F395" s="3"/>
+      <c r="E395" s="4"/>
+      <c r="F395" s="4"/>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
@@ -6537,8 +7115,8 @@
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
-      <c r="E396" s="3"/>
-      <c r="F396" s="3"/>
+      <c r="E396" s="4"/>
+      <c r="F396" s="4"/>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
@@ -6547,8 +7125,8 @@
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
-      <c r="E397" s="3"/>
-      <c r="F397" s="3"/>
+      <c r="E397" s="4"/>
+      <c r="F397" s="4"/>
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
@@ -6557,8 +7135,8 @@
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
-      <c r="E398" s="3"/>
-      <c r="F398" s="3"/>
+      <c r="E398" s="4"/>
+      <c r="F398" s="4"/>
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
@@ -6567,8 +7145,8 @@
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
-      <c r="E399" s="3"/>
-      <c r="F399" s="3"/>
+      <c r="E399" s="4"/>
+      <c r="F399" s="4"/>
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
@@ -6577,8 +7155,8 @@
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
-      <c r="E400" s="3"/>
-      <c r="F400" s="3"/>
+      <c r="E400" s="4"/>
+      <c r="F400" s="4"/>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
@@ -6587,8 +7165,8 @@
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
-      <c r="E401" s="3"/>
-      <c r="F401" s="3"/>
+      <c r="E401" s="4"/>
+      <c r="F401" s="4"/>
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
@@ -6597,8 +7175,8 @@
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
-      <c r="E402" s="3"/>
-      <c r="F402" s="3"/>
+      <c r="E402" s="4"/>
+      <c r="F402" s="4"/>
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
@@ -6607,8 +7185,8 @@
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
-      <c r="E403" s="3"/>
-      <c r="F403" s="3"/>
+      <c r="E403" s="4"/>
+      <c r="F403" s="4"/>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
@@ -6617,8 +7195,8 @@
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
-      <c r="E404" s="3"/>
-      <c r="F404" s="3"/>
+      <c r="E404" s="4"/>
+      <c r="F404" s="4"/>
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
@@ -6627,8 +7205,8 @@
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
-      <c r="E405" s="3"/>
-      <c r="F405" s="3"/>
+      <c r="E405" s="4"/>
+      <c r="F405" s="4"/>
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
@@ -6637,8 +7215,8 @@
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
-      <c r="E406" s="3"/>
-      <c r="F406" s="3"/>
+      <c r="E406" s="4"/>
+      <c r="F406" s="4"/>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
@@ -6647,8 +7225,8 @@
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
-      <c r="E407" s="3"/>
-      <c r="F407" s="3"/>
+      <c r="E407" s="4"/>
+      <c r="F407" s="4"/>
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
@@ -6657,8 +7235,8 @@
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
-      <c r="E408" s="3"/>
-      <c r="F408" s="3"/>
+      <c r="E408" s="4"/>
+      <c r="F408" s="4"/>
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
@@ -6667,8 +7245,8 @@
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
-      <c r="E409" s="3"/>
-      <c r="F409" s="3"/>
+      <c r="E409" s="4"/>
+      <c r="F409" s="4"/>
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
@@ -6677,8 +7255,8 @@
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
-      <c r="E410" s="3"/>
-      <c r="F410" s="3"/>
+      <c r="E410" s="4"/>
+      <c r="F410" s="4"/>
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
@@ -6687,8 +7265,8 @@
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
-      <c r="E411" s="3"/>
-      <c r="F411" s="3"/>
+      <c r="E411" s="4"/>
+      <c r="F411" s="4"/>
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
@@ -6697,8 +7275,8 @@
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
-      <c r="E412" s="3"/>
-      <c r="F412" s="3"/>
+      <c r="E412" s="4"/>
+      <c r="F412" s="4"/>
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
@@ -6707,8 +7285,8 @@
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
-      <c r="E413" s="3"/>
-      <c r="F413" s="3"/>
+      <c r="E413" s="4"/>
+      <c r="F413" s="4"/>
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
@@ -6717,8 +7295,8 @@
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
-      <c r="E414" s="3"/>
-      <c r="F414" s="3"/>
+      <c r="E414" s="4"/>
+      <c r="F414" s="4"/>
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
@@ -6727,8 +7305,8 @@
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
-      <c r="E415" s="3"/>
-      <c r="F415" s="3"/>
+      <c r="E415" s="4"/>
+      <c r="F415" s="4"/>
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
@@ -6737,8 +7315,8 @@
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
-      <c r="E416" s="3"/>
-      <c r="F416" s="3"/>
+      <c r="E416" s="4"/>
+      <c r="F416" s="4"/>
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
@@ -6747,8 +7325,8 @@
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
-      <c r="E417" s="3"/>
-      <c r="F417" s="3"/>
+      <c r="E417" s="4"/>
+      <c r="F417" s="4"/>
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
@@ -6757,8 +7335,8 @@
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
-      <c r="E418" s="3"/>
-      <c r="F418" s="3"/>
+      <c r="E418" s="4"/>
+      <c r="F418" s="4"/>
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
@@ -6767,8 +7345,8 @@
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
-      <c r="E419" s="3"/>
-      <c r="F419" s="3"/>
+      <c r="E419" s="4"/>
+      <c r="F419" s="4"/>
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
@@ -6777,8 +7355,8 @@
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
-      <c r="E420" s="3"/>
-      <c r="F420" s="3"/>
+      <c r="E420" s="4"/>
+      <c r="F420" s="4"/>
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
@@ -6787,8 +7365,8 @@
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
-      <c r="E421" s="3"/>
-      <c r="F421" s="3"/>
+      <c r="E421" s="4"/>
+      <c r="F421" s="4"/>
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
@@ -6797,8 +7375,8 @@
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
-      <c r="E422" s="3"/>
-      <c r="F422" s="3"/>
+      <c r="E422" s="4"/>
+      <c r="F422" s="4"/>
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
@@ -6807,8 +7385,8 @@
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
-      <c r="E423" s="3"/>
-      <c r="F423" s="3"/>
+      <c r="E423" s="4"/>
+      <c r="F423" s="4"/>
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
@@ -6817,8 +7395,8 @@
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
-      <c r="E424" s="3"/>
-      <c r="F424" s="3"/>
+      <c r="E424" s="4"/>
+      <c r="F424" s="4"/>
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
@@ -6827,8 +7405,8 @@
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
-      <c r="E425" s="3"/>
-      <c r="F425" s="3"/>
+      <c r="E425" s="4"/>
+      <c r="F425" s="4"/>
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
@@ -6837,8 +7415,8 @@
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
-      <c r="E426" s="3"/>
-      <c r="F426" s="3"/>
+      <c r="E426" s="4"/>
+      <c r="F426" s="4"/>
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
@@ -6847,8 +7425,8 @@
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
-      <c r="E427" s="3"/>
-      <c r="F427" s="3"/>
+      <c r="E427" s="4"/>
+      <c r="F427" s="4"/>
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
@@ -6857,8 +7435,8 @@
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
-      <c r="E428" s="3"/>
-      <c r="F428" s="3"/>
+      <c r="E428" s="4"/>
+      <c r="F428" s="4"/>
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
@@ -6867,8 +7445,8 @@
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
-      <c r="E429" s="3"/>
-      <c r="F429" s="3"/>
+      <c r="E429" s="4"/>
+      <c r="F429" s="4"/>
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
@@ -6877,8 +7455,8 @@
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
-      <c r="E430" s="3"/>
-      <c r="F430" s="3"/>
+      <c r="E430" s="4"/>
+      <c r="F430" s="4"/>
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
@@ -6887,8 +7465,8 @@
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
-      <c r="E431" s="3"/>
-      <c r="F431" s="3"/>
+      <c r="E431" s="4"/>
+      <c r="F431" s="4"/>
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
@@ -6897,8 +7475,8 @@
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
-      <c r="E432" s="3"/>
-      <c r="F432" s="3"/>
+      <c r="E432" s="4"/>
+      <c r="F432" s="4"/>
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
@@ -6907,8 +7485,8 @@
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
-      <c r="E433" s="3"/>
-      <c r="F433" s="3"/>
+      <c r="E433" s="4"/>
+      <c r="F433" s="4"/>
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
@@ -6917,8 +7495,8 @@
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
-      <c r="E434" s="3"/>
-      <c r="F434" s="3"/>
+      <c r="E434" s="4"/>
+      <c r="F434" s="4"/>
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
@@ -6927,8 +7505,8 @@
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
-      <c r="E435" s="3"/>
-      <c r="F435" s="3"/>
+      <c r="E435" s="4"/>
+      <c r="F435" s="4"/>
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
@@ -6937,8 +7515,8 @@
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
-      <c r="E436" s="3"/>
-      <c r="F436" s="3"/>
+      <c r="E436" s="4"/>
+      <c r="F436" s="4"/>
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
@@ -6947,8 +7525,8 @@
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
-      <c r="E437" s="3"/>
-      <c r="F437" s="3"/>
+      <c r="E437" s="4"/>
+      <c r="F437" s="4"/>
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
@@ -6957,8 +7535,8 @@
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
-      <c r="E438" s="3"/>
-      <c r="F438" s="3"/>
+      <c r="E438" s="4"/>
+      <c r="F438" s="4"/>
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
@@ -6967,8 +7545,8 @@
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
-      <c r="E439" s="3"/>
-      <c r="F439" s="3"/>
+      <c r="E439" s="4"/>
+      <c r="F439" s="4"/>
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
@@ -6977,8 +7555,8 @@
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
-      <c r="E440" s="3"/>
-      <c r="F440" s="3"/>
+      <c r="E440" s="4"/>
+      <c r="F440" s="4"/>
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
@@ -6987,8 +7565,8 @@
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
-      <c r="E441" s="3"/>
-      <c r="F441" s="3"/>
+      <c r="E441" s="4"/>
+      <c r="F441" s="4"/>
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
@@ -6997,8 +7575,8 @@
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
-      <c r="E442" s="3"/>
-      <c r="F442" s="3"/>
+      <c r="E442" s="4"/>
+      <c r="F442" s="4"/>
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
@@ -7007,8 +7585,8 @@
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
-      <c r="E443" s="3"/>
-      <c r="F443" s="3"/>
+      <c r="E443" s="4"/>
+      <c r="F443" s="4"/>
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
@@ -7017,8 +7595,8 @@
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
-      <c r="E444" s="3"/>
-      <c r="F444" s="3"/>
+      <c r="E444" s="4"/>
+      <c r="F444" s="4"/>
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
@@ -7027,8 +7605,8 @@
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
-      <c r="E445" s="3"/>
-      <c r="F445" s="3"/>
+      <c r="E445" s="4"/>
+      <c r="F445" s="4"/>
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
@@ -7037,8 +7615,8 @@
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
-      <c r="E446" s="3"/>
-      <c r="F446" s="3"/>
+      <c r="E446" s="4"/>
+      <c r="F446" s="4"/>
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
@@ -7047,8 +7625,8 @@
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
-      <c r="E447" s="3"/>
-      <c r="F447" s="3"/>
+      <c r="E447" s="4"/>
+      <c r="F447" s="4"/>
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
@@ -7057,8 +7635,8 @@
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
-      <c r="E448" s="3"/>
-      <c r="F448" s="3"/>
+      <c r="E448" s="4"/>
+      <c r="F448" s="4"/>
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
     </row>
@@ -7067,8 +7645,8 @@
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
-      <c r="E449" s="3"/>
-      <c r="F449" s="3"/>
+      <c r="E449" s="4"/>
+      <c r="F449" s="4"/>
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
     </row>
@@ -7077,8 +7655,8 @@
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
-      <c r="E450" s="3"/>
-      <c r="F450" s="3"/>
+      <c r="E450" s="4"/>
+      <c r="F450" s="4"/>
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
     </row>
@@ -7087,8 +7665,8 @@
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
-      <c r="E451" s="3"/>
-      <c r="F451" s="3"/>
+      <c r="E451" s="4"/>
+      <c r="F451" s="4"/>
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
     </row>
@@ -7097,8 +7675,8 @@
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
-      <c r="E452" s="3"/>
-      <c r="F452" s="3"/>
+      <c r="E452" s="4"/>
+      <c r="F452" s="4"/>
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
     </row>
@@ -7107,8 +7685,8 @@
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
-      <c r="E453" s="3"/>
-      <c r="F453" s="3"/>
+      <c r="E453" s="4"/>
+      <c r="F453" s="4"/>
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
     </row>
@@ -7117,8 +7695,8 @@
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
-      <c r="E454" s="3"/>
-      <c r="F454" s="3"/>
+      <c r="E454" s="4"/>
+      <c r="F454" s="4"/>
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
     </row>
@@ -7127,8 +7705,8 @@
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
-      <c r="E455" s="3"/>
-      <c r="F455" s="3"/>
+      <c r="E455" s="4"/>
+      <c r="F455" s="4"/>
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
     </row>
@@ -7137,8 +7715,8 @@
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
-      <c r="E456" s="3"/>
-      <c r="F456" s="3"/>
+      <c r="E456" s="4"/>
+      <c r="F456" s="4"/>
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
     </row>
@@ -7147,8 +7725,8 @@
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
-      <c r="E457" s="3"/>
-      <c r="F457" s="3"/>
+      <c r="E457" s="4"/>
+      <c r="F457" s="4"/>
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
     </row>
@@ -7157,8 +7735,8 @@
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
-      <c r="E458" s="3"/>
-      <c r="F458" s="3"/>
+      <c r="E458" s="4"/>
+      <c r="F458" s="4"/>
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
@@ -7167,8 +7745,8 @@
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
-      <c r="E459" s="3"/>
-      <c r="F459" s="3"/>
+      <c r="E459" s="4"/>
+      <c r="F459" s="4"/>
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
     </row>
@@ -7177,8 +7755,8 @@
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
-      <c r="E460" s="3"/>
-      <c r="F460" s="3"/>
+      <c r="E460" s="4"/>
+      <c r="F460" s="4"/>
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
     </row>
@@ -7187,8 +7765,8 @@
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
-      <c r="E461" s="3"/>
-      <c r="F461" s="3"/>
+      <c r="E461" s="4"/>
+      <c r="F461" s="4"/>
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
     </row>
@@ -7197,8 +7775,8 @@
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
-      <c r="E462" s="3"/>
-      <c r="F462" s="3"/>
+      <c r="E462" s="4"/>
+      <c r="F462" s="4"/>
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
     </row>
@@ -7207,8 +7785,8 @@
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
-      <c r="E463" s="3"/>
-      <c r="F463" s="3"/>
+      <c r="E463" s="4"/>
+      <c r="F463" s="4"/>
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
     </row>
@@ -7217,8 +7795,8 @@
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
-      <c r="E464" s="3"/>
-      <c r="F464" s="3"/>
+      <c r="E464" s="4"/>
+      <c r="F464" s="4"/>
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
     </row>
@@ -7227,8 +7805,8 @@
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
-      <c r="E465" s="3"/>
-      <c r="F465" s="3"/>
+      <c r="E465" s="4"/>
+      <c r="F465" s="4"/>
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
     </row>
@@ -7237,8 +7815,8 @@
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
-      <c r="E466" s="3"/>
-      <c r="F466" s="3"/>
+      <c r="E466" s="4"/>
+      <c r="F466" s="4"/>
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
     </row>
@@ -7247,8 +7825,8 @@
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
-      <c r="E467" s="3"/>
-      <c r="F467" s="3"/>
+      <c r="E467" s="4"/>
+      <c r="F467" s="4"/>
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
     </row>
@@ -7257,8 +7835,8 @@
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
-      <c r="E468" s="3"/>
-      <c r="F468" s="3"/>
+      <c r="E468" s="4"/>
+      <c r="F468" s="4"/>
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
     </row>
@@ -7267,8 +7845,8 @@
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
-      <c r="E469" s="3"/>
-      <c r="F469" s="3"/>
+      <c r="E469" s="4"/>
+      <c r="F469" s="4"/>
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
     </row>
@@ -7277,8 +7855,8 @@
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
-      <c r="E470" s="3"/>
-      <c r="F470" s="3"/>
+      <c r="E470" s="4"/>
+      <c r="F470" s="4"/>
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
     </row>
@@ -7287,8 +7865,8 @@
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
-      <c r="E471" s="3"/>
-      <c r="F471" s="3"/>
+      <c r="E471" s="4"/>
+      <c r="F471" s="4"/>
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
     </row>
@@ -7297,8 +7875,8 @@
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
-      <c r="E472" s="3"/>
-      <c r="F472" s="3"/>
+      <c r="E472" s="4"/>
+      <c r="F472" s="4"/>
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
     </row>
@@ -7307,8 +7885,8 @@
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
-      <c r="E473" s="3"/>
-      <c r="F473" s="3"/>
+      <c r="E473" s="4"/>
+      <c r="F473" s="4"/>
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
     </row>
@@ -7317,8 +7895,8 @@
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
-      <c r="E474" s="3"/>
-      <c r="F474" s="3"/>
+      <c r="E474" s="4"/>
+      <c r="F474" s="4"/>
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
     </row>
@@ -7327,8 +7905,8 @@
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
-      <c r="E475" s="3"/>
-      <c r="F475" s="3"/>
+      <c r="E475" s="4"/>
+      <c r="F475" s="4"/>
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
     </row>
@@ -7337,8 +7915,8 @@
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
-      <c r="E476" s="3"/>
-      <c r="F476" s="3"/>
+      <c r="E476" s="4"/>
+      <c r="F476" s="4"/>
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
     </row>
@@ -7347,8 +7925,8 @@
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
-      <c r="E477" s="3"/>
-      <c r="F477" s="3"/>
+      <c r="E477" s="4"/>
+      <c r="F477" s="4"/>
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
     </row>
@@ -7357,8 +7935,8 @@
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
-      <c r="E478" s="3"/>
-      <c r="F478" s="3"/>
+      <c r="E478" s="4"/>
+      <c r="F478" s="4"/>
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
@@ -7367,8 +7945,8 @@
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
-      <c r="E479" s="3"/>
-      <c r="F479" s="3"/>
+      <c r="E479" s="4"/>
+      <c r="F479" s="4"/>
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
     </row>
@@ -7377,8 +7955,8 @@
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
-      <c r="E480" s="3"/>
-      <c r="F480" s="3"/>
+      <c r="E480" s="4"/>
+      <c r="F480" s="4"/>
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
     </row>
@@ -7387,8 +7965,8 @@
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
-      <c r="E481" s="3"/>
-      <c r="F481" s="3"/>
+      <c r="E481" s="4"/>
+      <c r="F481" s="4"/>
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
     </row>
@@ -7397,8 +7975,8 @@
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
-      <c r="E482" s="3"/>
-      <c r="F482" s="3"/>
+      <c r="E482" s="4"/>
+      <c r="F482" s="4"/>
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
     </row>
@@ -7407,8 +7985,8 @@
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
-      <c r="E483" s="3"/>
-      <c r="F483" s="3"/>
+      <c r="E483" s="4"/>
+      <c r="F483" s="4"/>
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
     </row>
@@ -7417,8 +7995,8 @@
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
-      <c r="E484" s="3"/>
-      <c r="F484" s="3"/>
+      <c r="E484" s="4"/>
+      <c r="F484" s="4"/>
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
     </row>
@@ -7427,8 +8005,8 @@
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
-      <c r="E485" s="3"/>
-      <c r="F485" s="3"/>
+      <c r="E485" s="4"/>
+      <c r="F485" s="4"/>
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
     </row>
@@ -7437,8 +8015,8 @@
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
-      <c r="E486" s="3"/>
-      <c r="F486" s="3"/>
+      <c r="E486" s="4"/>
+      <c r="F486" s="4"/>
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
     </row>
@@ -7447,8 +8025,8 @@
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
-      <c r="E487" s="3"/>
-      <c r="F487" s="3"/>
+      <c r="E487" s="4"/>
+      <c r="F487" s="4"/>
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
     </row>
@@ -7457,8 +8035,8 @@
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
-      <c r="E488" s="3"/>
-      <c r="F488" s="3"/>
+      <c r="E488" s="4"/>
+      <c r="F488" s="4"/>
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
     </row>
@@ -7467,8 +8045,8 @@
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
-      <c r="E489" s="3"/>
-      <c r="F489" s="3"/>
+      <c r="E489" s="4"/>
+      <c r="F489" s="4"/>
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
     </row>
@@ -7477,8 +8055,8 @@
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
-      <c r="E490" s="3"/>
-      <c r="F490" s="3"/>
+      <c r="E490" s="4"/>
+      <c r="F490" s="4"/>
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
     </row>
@@ -7487,8 +8065,8 @@
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
-      <c r="E491" s="3"/>
-      <c r="F491" s="3"/>
+      <c r="E491" s="4"/>
+      <c r="F491" s="4"/>
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
     </row>
@@ -7497,8 +8075,8 @@
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
-      <c r="E492" s="3"/>
-      <c r="F492" s="3"/>
+      <c r="E492" s="4"/>
+      <c r="F492" s="4"/>
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
     </row>
@@ -7507,8 +8085,8 @@
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
-      <c r="E493" s="3"/>
-      <c r="F493" s="3"/>
+      <c r="E493" s="4"/>
+      <c r="F493" s="4"/>
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
     </row>
@@ -7517,8 +8095,8 @@
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
-      <c r="E494" s="3"/>
-      <c r="F494" s="3"/>
+      <c r="E494" s="4"/>
+      <c r="F494" s="4"/>
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
     </row>
@@ -7527,8 +8105,8 @@
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
-      <c r="E495" s="3"/>
-      <c r="F495" s="3"/>
+      <c r="E495" s="4"/>
+      <c r="F495" s="4"/>
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
     </row>
@@ -7537,8 +8115,8 @@
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
-      <c r="E496" s="3"/>
-      <c r="F496" s="3"/>
+      <c r="E496" s="4"/>
+      <c r="F496" s="4"/>
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
     </row>
@@ -7547,8 +8125,8 @@
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
-      <c r="E497" s="3"/>
-      <c r="F497" s="3"/>
+      <c r="E497" s="4"/>
+      <c r="F497" s="4"/>
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
     </row>
@@ -7557,8 +8135,8 @@
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
-      <c r="E498" s="3"/>
-      <c r="F498" s="3"/>
+      <c r="E498" s="4"/>
+      <c r="F498" s="4"/>
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
     </row>
@@ -7567,8 +8145,8 @@
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
-      <c r="E499" s="3"/>
-      <c r="F499" s="3"/>
+      <c r="E499" s="4"/>
+      <c r="F499" s="4"/>
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
     </row>
@@ -7577,8 +8155,8 @@
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
-      <c r="E500" s="3"/>
-      <c r="F500" s="3"/>
+      <c r="E500" s="4"/>
+      <c r="F500" s="4"/>
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
     </row>
@@ -7587,8 +8165,8 @@
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
-      <c r="E501" s="3"/>
-      <c r="F501" s="3"/>
+      <c r="E501" s="4"/>
+      <c r="F501" s="4"/>
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
     </row>
@@ -7597,8 +8175,8 @@
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
-      <c r="E502" s="3"/>
-      <c r="F502" s="3"/>
+      <c r="E502" s="4"/>
+      <c r="F502" s="4"/>
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
     </row>
@@ -7607,8 +8185,8 @@
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
-      <c r="E503" s="3"/>
-      <c r="F503" s="3"/>
+      <c r="E503" s="4"/>
+      <c r="F503" s="4"/>
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
     </row>
@@ -7617,8 +8195,8 @@
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
-      <c r="E504" s="3"/>
-      <c r="F504" s="3"/>
+      <c r="E504" s="4"/>
+      <c r="F504" s="4"/>
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
     </row>
@@ -7627,8 +8205,8 @@
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
-      <c r="E505" s="3"/>
-      <c r="F505" s="3"/>
+      <c r="E505" s="4"/>
+      <c r="F505" s="4"/>
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
     </row>
@@ -7637,8 +8215,8 @@
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
-      <c r="E506" s="3"/>
-      <c r="F506" s="3"/>
+      <c r="E506" s="4"/>
+      <c r="F506" s="4"/>
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
     </row>
@@ -7647,8 +8225,8 @@
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
-      <c r="E507" s="3"/>
-      <c r="F507" s="3"/>
+      <c r="E507" s="4"/>
+      <c r="F507" s="4"/>
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
     </row>
@@ -7657,8 +8235,8 @@
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
-      <c r="E508" s="3"/>
-      <c r="F508" s="3"/>
+      <c r="E508" s="4"/>
+      <c r="F508" s="4"/>
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
     </row>
@@ -7667,8 +8245,8 @@
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
-      <c r="E509" s="3"/>
-      <c r="F509" s="3"/>
+      <c r="E509" s="4"/>
+      <c r="F509" s="4"/>
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
     </row>
@@ -7677,8 +8255,8 @@
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
-      <c r="E510" s="3"/>
-      <c r="F510" s="3"/>
+      <c r="E510" s="4"/>
+      <c r="F510" s="4"/>
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
     </row>
@@ -7687,8 +8265,8 @@
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
-      <c r="E511" s="3"/>
-      <c r="F511" s="3"/>
+      <c r="E511" s="4"/>
+      <c r="F511" s="4"/>
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
     </row>
@@ -7697,8 +8275,8 @@
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
-      <c r="E512" s="3"/>
-      <c r="F512" s="3"/>
+      <c r="E512" s="4"/>
+      <c r="F512" s="4"/>
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
     </row>
@@ -7707,8 +8285,8 @@
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
-      <c r="E513" s="3"/>
-      <c r="F513" s="3"/>
+      <c r="E513" s="4"/>
+      <c r="F513" s="4"/>
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
     </row>
@@ -7717,8 +8295,8 @@
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
-      <c r="E514" s="3"/>
-      <c r="F514" s="3"/>
+      <c r="E514" s="4"/>
+      <c r="F514" s="4"/>
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
     </row>
@@ -7727,8 +8305,8 @@
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
-      <c r="E515" s="3"/>
-      <c r="F515" s="3"/>
+      <c r="E515" s="4"/>
+      <c r="F515" s="4"/>
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
     </row>
@@ -7737,8 +8315,8 @@
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
-      <c r="E516" s="3"/>
-      <c r="F516" s="3"/>
+      <c r="E516" s="4"/>
+      <c r="F516" s="4"/>
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
     </row>
@@ -7747,8 +8325,8 @@
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
-      <c r="E517" s="3"/>
-      <c r="F517" s="3"/>
+      <c r="E517" s="4"/>
+      <c r="F517" s="4"/>
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
     </row>
@@ -7757,8 +8335,8 @@
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
-      <c r="E518" s="3"/>
-      <c r="F518" s="3"/>
+      <c r="E518" s="4"/>
+      <c r="F518" s="4"/>
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
     </row>
@@ -7767,8 +8345,8 @@
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
-      <c r="E519" s="3"/>
-      <c r="F519" s="3"/>
+      <c r="E519" s="4"/>
+      <c r="F519" s="4"/>
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
     </row>
@@ -7777,8 +8355,8 @@
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
-      <c r="E520" s="3"/>
-      <c r="F520" s="3"/>
+      <c r="E520" s="4"/>
+      <c r="F520" s="4"/>
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
     </row>
@@ -7787,8 +8365,8 @@
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
-      <c r="E521" s="3"/>
-      <c r="F521" s="3"/>
+      <c r="E521" s="4"/>
+      <c r="F521" s="4"/>
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
     </row>
@@ -7797,8 +8375,8 @@
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
-      <c r="E522" s="3"/>
-      <c r="F522" s="3"/>
+      <c r="E522" s="4"/>
+      <c r="F522" s="4"/>
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
     </row>
@@ -7807,8 +8385,8 @@
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
-      <c r="E523" s="3"/>
-      <c r="F523" s="3"/>
+      <c r="E523" s="4"/>
+      <c r="F523" s="4"/>
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
     </row>
@@ -7817,8 +8395,8 @@
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
-      <c r="E524" s="3"/>
-      <c r="F524" s="3"/>
+      <c r="E524" s="4"/>
+      <c r="F524" s="4"/>
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
     </row>
